--- a/zone_config_sample.xlsx
+++ b/zone_config_sample.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486DD82-763B-4733-995A-202C8642AED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B52EDE-C323-4282-9F93-1734D2E0D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="348" windowWidth="21936" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="20376" windowHeight="12594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="sample" sheetId="53" r:id="rId2"/>
     <sheet name="purge" sheetId="61" r:id="rId3"/>
-    <sheet name="null" sheetId="58" r:id="rId4"/>
+    <sheet name="blank" sheetId="62" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
   <si>
     <t>Action</t>
   </si>
@@ -169,15 +179,6 @@
     <t>Rules, Tips, and Guidelines</t>
   </si>
   <si>
-    <t>Adds a member to the object specified in the "Name" column. Principal Members are only supported for peer zones. You may have members in both the "Member" and "Principal Member" cells so long as each individual cell only contains one member.</t>
-  </si>
-  <si>
-    <t>Deletes the object specified in the "Name" cell.</t>
-  </si>
-  <si>
-    <t>Creates the object specified in the "Name" cell. Members are added to the object.</t>
-  </si>
-  <si>
     <t>full_purge</t>
   </si>
   <si>
@@ -215,86 +216,124 @@
   </si>
   <si>
     <t>The cell in the "Name" column may contain ReGex searching text. Applies to delete, remove_mem, purge, full_purge, and ignore actions only.</t>
+  </si>
+  <si>
+    <t>storeage_alias_2</t>
+  </si>
+  <si>
+    <t>storeage_alias_3</t>
+  </si>
+  <si>
+    <t>50:06:04:82:d5:31:d4:02</t>
+  </si>
+  <si>
+    <t>50:06:04:82:d5:31:d4:03</t>
+  </si>
+  <si>
+    <t>server_alias_6</t>
+  </si>
+  <si>
+    <t>server_alias_7</t>
+  </si>
+  <si>
+    <t>10:00:70:10:6f:56:9f:06</t>
+  </si>
+  <si>
+    <t>10:00:70:10:6f:56:9f:07</t>
+  </si>
+  <si>
+    <t>peer_zone_1</t>
+  </si>
+  <si>
+    <t>zone_2</t>
+  </si>
+  <si>
+    <t>storeage_alias_4</t>
+  </si>
+  <si>
+    <t>storeage_alias_5</t>
+  </si>
+  <si>
+    <t>server_alias_8</t>
+  </si>
+  <si>
+    <t>10:00:70:10:6f:56:9f:08</t>
+  </si>
+  <si>
+    <t>50:06:04:82:d5:31:d4:04</t>
+  </si>
+  <si>
+    <t>50:06:04:82:d5:31:d4:05</t>
+  </si>
+  <si>
+    <t>server_alias_(7|8)</t>
+  </si>
+  <si>
+    <t>zone_wxyz_*</t>
+  </si>
+  <si>
+    <t>zone_cfg_a</t>
+  </si>
+  <si>
+    <t>Exact is the default. Cell D4 could have been left empty, but clear and explicit makes for better documentation.</t>
+  </si>
+  <si>
+    <t>copy</t>
   </si>
   <si>
     <t>Regardless of the order of zoning operation in the workbook, operations are completed in this order:
    1. Delete zone configurations
-   2. Remove zone configuration members
-   3. Delete zones
-   4. Delete zone members
-   5. Delete aliases
-   6. Add aliases
-   7. Add zones
-   8. Add zone members
-   9. Add zone configurations
-  10. Add zone configuration members
-  11. Save or activate zone changes</t>
-  </si>
-  <si>
-    <t>Whenever the Zone Object is "zone_cfg" and the Action is "save" or "activate" a validation check is performed. Zoning transactions are not committed to the switch until all actions in the workbook have been completed. If the last action is not "save" or "activate", no changes are made on the switch.</t>
-  </si>
-  <si>
-    <t>For zone objects only. Purges all members, then purges the zone object.</t>
-  </si>
-  <si>
-    <t>Has the effect of "remove_mem" from any object the object is used in, then "delete" the object. Applies to aliases and zones only. The intended use is for decomissioning storage arrays or servers. If the resulting zone has no members that count, the zone is purged as well. Similarly, if the resulting zone configuration has no members, the zone configuration is releted unless it's the effective zone. Any zone that has had members purged and still has members the count will result in an error and the zoning changes not saved. See "ignore" for important notes.</t>
-  </si>
-  <si>
-    <t>Only supported with alias objects. Only the "Member" column should be used. It may contain WWNs or aliases. When a server WWN or alias is removed from a zone, the desired effect is usually to delete the zone. There is no reliable way to differentiate storage from initiators so if there are remaining members, there is no way to determine if a servers is being alienated from it's storage. This gets around this problem by ignoring these members in the membership count. Tip: Test first and only define things to ignore as needed.</t>
-  </si>
-  <si>
-    <t>storeage_alias_2</t>
-  </si>
-  <si>
-    <t>storeage_alias_3</t>
-  </si>
-  <si>
-    <t>50:06:04:82:d5:31:d4:02</t>
-  </si>
-  <si>
-    <t>50:06:04:82:d5:31:d4:03</t>
-  </si>
-  <si>
-    <t>server_alias_6</t>
-  </si>
-  <si>
-    <t>server_alias_7</t>
-  </si>
-  <si>
-    <t>10:00:70:10:6f:56:9f:06</t>
-  </si>
-  <si>
-    <t>10:00:70:10:6f:56:9f:07</t>
-  </si>
-  <si>
-    <t>peer_zone_1</t>
-  </si>
-  <si>
-    <t>zone_2</t>
-  </si>
-  <si>
-    <t>storeage_alias_4</t>
-  </si>
-  <si>
-    <t>storeage_alias_5</t>
-  </si>
-  <si>
-    <t>If run with -a, the new zone configuration should be enabled and nothing else.</t>
-  </si>
-  <si>
-    <t>server_alias_8</t>
-  </si>
-  <si>
-    <t>10:00:70:10:6f:56:9f:08</t>
-  </si>
-  <si>
-    <t>50:06:04:82:d5:31:d4:04</t>
-  </si>
-  <si>
-    <t>50:06:04:82:d5:31:d4:05</t>
-  </si>
-  <si>
-    <t>server_alias_(7|8)</t>
+   2. Remove and purge zone configuration members
+   3. Delete and purge zones
+   4. Remove zone members
+   5. Delete and purge aliases
+   6. Remove alias members
+   6. Create and copy aliases
+   7. Create and copy zones
+   8. Create and copy configurations
+   9. Add alias members
+  10. Add zone members
+  11. Add zone configuration members
+  12. Save or activate zone changes</t>
+  </si>
+  <si>
+    <t>Adds a member to an alias, zone, or zone configuration membership list.</t>
+  </si>
+  <si>
+    <t>Copies an alias, zone, or zone configuration</t>
+  </si>
+  <si>
+    <t>Creates an alias, zone, or zone configuration.</t>
+  </si>
+  <si>
+    <t>Deletes an alias, zone, or zone configuration.</t>
+  </si>
+  <si>
+    <t>Supported for alias and zone actions only. The value in the "Member" cell is used to define the alias or zone for the purge action to act on. This is the equivalent to the CLI zoneobjectexpunge command.</t>
+  </si>
+  <si>
+    <t>Removes the alias, d,i, or WWN in the "Member" cell from any zone it is used in. Typically, a full_purge action is used to remove no longer needed aliases to avoid runt zones.</t>
+  </si>
+  <si>
+    <t>Removes the zone in the "Member" cell from any zone configuration it is used in.</t>
+  </si>
+  <si>
+    <t>zone_cgf</t>
+  </si>
+  <si>
+    <t>The value in the "Member" cell is used to define the alias, zone, or zone configuration for the full_purge action to act on.</t>
+  </si>
+  <si>
+    <t>Executes a purge action on the alias. A full_purge is then executed on any zone affected by the alias purge that has no remaining members. See  Ignore  for additional details.</t>
+  </si>
+  <si>
+    <t>After executing a purge action on the zone, any affected zone configuration with no remaining members is deleted. Any alias not used in any other zone is also deleted.</t>
+  </si>
+  <si>
+    <t>Deletes the zone configuration. A full_purge action is executed on any affected zone that is not used in any other zone configuration.</t>
+  </si>
+  <si>
+    <t>Typically not used. Run "zone_config.py -eh" for details</t>
   </si>
 </sst>
 </file>
@@ -379,9 +418,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,233 +712,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.68359375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.68359375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <f t="shared" ref="A6:A13" si="0">A5+1</f>
+    <row r="6" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A12" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -912,19 +980,19 @@
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -935,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -947,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -964,7 +1032,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -977,59 +1045,59 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1042,7 +1110,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1055,7 +1123,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -1068,7 +1136,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1081,7 +1149,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -1094,7 +1162,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1107,46 +1175,46 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1155,7 +1223,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1240,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1183,7 +1251,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1194,7 +1262,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1205,7 +1273,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1214,7 +1282,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -1227,7 +1295,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1238,7 +1306,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1247,44 +1315,42 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1293,7 +1359,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1312,7 +1378,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1323,7 +1389,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1334,7 +1400,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1343,44 +1409,44 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1389,7 +1455,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1472,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1417,18 +1483,18 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1439,7 +1505,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1448,7 +1514,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1465,29 +1531,29 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1496,7 +1562,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1505,7 +1571,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1514,7 +1580,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1523,7 +1589,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1532,7 +1598,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1541,7 +1607,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1550,7 +1616,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1559,7 +1625,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1568,7 +1634,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1577,7 +1643,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1586,7 +1652,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1595,7 +1661,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1604,7 +1670,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1613,7 +1679,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1622,7 +1688,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1631,7 +1697,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1640,7 +1706,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1649,7 +1715,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1658,7 +1724,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1667,7 +1733,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1676,7 +1742,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1685,7 +1751,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1694,7 +1760,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1703,7 +1769,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1712,7 +1778,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1721,7 +1787,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1730,7 +1796,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1739,7 +1805,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1748,7 +1814,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1757,7 +1823,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1766,7 +1832,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1775,7 +1841,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1784,7 +1850,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1793,7 +1859,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1802,7 +1868,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1811,7 +1877,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1820,7 +1886,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1829,7 +1895,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1838,7 +1904,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1847,7 +1913,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1856,7 +1922,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1865,7 +1931,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1874,7 +1940,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1883,7 +1949,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1892,7 +1958,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1901,7 +1967,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1910,7 +1976,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1919,7 +1985,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1928,7 +1994,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1937,7 +2003,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1946,7 +2012,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1955,7 +2021,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1964,7 +2030,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1973,7 +2039,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1982,7 +2048,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1991,7 +2057,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2000,7 +2066,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2009,7 +2075,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2018,7 +2084,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2027,7 +2093,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2036,7 +2102,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2045,7 +2111,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2054,7 +2120,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2063,7 +2129,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2072,7 +2138,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2081,7 +2147,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2090,7 +2156,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2099,7 +2165,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2108,7 +2174,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2117,7 +2183,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2126,7 +2192,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2135,7 +2201,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2144,7 +2210,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2153,7 +2219,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2162,7 +2228,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2171,7 +2237,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2180,7 +2246,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2189,7 +2255,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2198,7 +2264,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2207,7 +2273,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2216,7 +2282,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2225,7 +2291,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2234,7 +2300,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2243,7 +2309,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2252,7 +2318,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2261,7 +2327,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2270,7 +2336,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2279,7 +2345,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2288,7 +2354,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2297,7 +2363,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2306,7 +2372,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2315,7 +2381,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2324,7 +2390,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2333,7 +2399,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2342,7 +2408,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2351,7 +2417,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2360,7 +2426,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2369,7 +2435,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2378,7 +2444,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2387,7 +2453,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2396,7 +2462,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2405,7 +2471,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2414,7 +2480,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2426,14 +2492,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B149" xr:uid="{A1F90934-CC59-4683-BBEC-BDF5AD206F85}">
-      <formula1>"create,add_mem,delete,remove_mem,purge,full_purge,ignore"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A149" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D149" xr:uid="{8D47A8F6-ACF7-4647-8D26-DE94B8511AFF}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B149" xr:uid="{44734BF6-806A-4CD9-82B0-9602011B605B}">
+      <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2446,19 +2512,19 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2481,7 +2547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2489,40 +2555,52 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2531,7 +2609,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2540,7 +2618,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2549,7 +2627,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2558,7 +2636,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2567,7 +2645,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2576,7 +2654,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2585,7 +2663,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2594,7 +2672,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2603,7 +2681,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2612,7 +2690,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2621,7 +2699,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2630,7 +2708,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2639,7 +2717,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2648,7 +2726,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2657,7 +2735,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2666,7 +2744,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2675,7 +2753,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2684,7 +2762,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2693,7 +2771,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2702,7 +2780,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2711,7 +2789,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2720,7 +2798,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2729,7 +2807,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2738,7 +2816,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2747,7 +2825,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2756,7 +2834,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2765,7 +2843,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2774,7 +2852,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2783,7 +2861,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2792,7 +2870,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2801,7 +2879,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2810,7 +2888,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2819,7 +2897,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2828,7 +2906,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2837,7 +2915,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2846,7 +2924,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2855,7 +2933,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2864,7 +2942,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2873,7 +2951,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2882,7 +2960,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2891,7 +2969,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2900,7 +2978,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2909,7 +2987,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2918,7 +2996,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2927,7 +3005,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2936,7 +3014,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2945,7 +3023,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2954,7 +3032,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2963,7 +3041,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2972,7 +3050,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2981,7 +3059,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2990,7 +3068,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2999,7 +3077,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3008,7 +3086,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3017,7 +3095,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3026,7 +3104,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3035,7 +3113,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3044,7 +3122,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3053,7 +3131,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3062,7 +3140,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3071,7 +3149,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3080,7 +3158,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3089,7 +3167,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3098,7 +3176,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3107,7 +3185,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3116,7 +3194,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3125,7 +3203,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3134,7 +3212,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3143,7 +3221,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3152,7 +3230,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3161,7 +3239,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3170,7 +3248,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3179,7 +3257,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3188,7 +3266,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3197,7 +3275,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3206,7 +3284,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3215,7 +3293,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3224,7 +3302,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3233,7 +3311,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3242,7 +3320,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3251,7 +3329,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3260,7 +3338,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3269,7 +3347,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3278,7 +3356,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3287,7 +3365,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3296,7 +3374,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3305,7 +3383,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3314,7 +3392,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3323,7 +3401,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3332,7 +3410,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3341,7 +3419,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3350,7 +3428,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3359,7 +3437,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3368,7 +3446,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3377,7 +3455,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3386,7 +3464,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3395,7 +3473,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3404,7 +3482,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3413,7 +3491,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3422,7 +3500,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3431,7 +3509,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3440,7 +3518,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3449,7 +3527,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3458,7 +3536,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3467,7 +3545,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3476,7 +3554,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3485,7 +3563,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3494,7 +3572,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3503,7 +3581,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3512,7 +3590,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3521,7 +3599,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3530,7 +3608,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3539,7 +3617,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3548,7 +3626,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3557,7 +3635,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3566,7 +3644,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3575,7 +3653,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3584,7 +3662,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3593,7 +3671,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3602,7 +3680,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3611,7 +3689,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3620,7 +3698,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3629,7 +3707,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3638,7 +3716,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3649,14 +3727,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{9C867A82-E95C-4EDC-9EE2-9CFD0D4C497F}">
-      <formula1>"create,add_mem,delete,remove_mem,purge,full_purge,ignore"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{2681A759-FDA5-4E00-8773-15D76F7F46BE}">
       <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D129" xr:uid="{A4EC421C-0642-4EAE-BF42-E8403666A893}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{74D7117C-DC16-40B8-9EE4-AC5D2D35F254}">
+      <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3665,23 +3743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C7E8-90B8-4F9C-B0AC-1B4C0BECBF39}">
-  <dimension ref="A1:G132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5668D-8749-4726-A3D9-C71F37017042}">
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.6640625" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3692,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3704,18 +3782,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3724,7 +3800,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3733,7 +3809,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3742,7 +3818,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3751,7 +3827,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3760,7 +3836,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3769,7 +3845,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3778,7 +3854,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3787,7 +3863,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3796,7 +3872,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3805,7 +3881,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3814,7 +3890,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3823,7 +3899,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3832,7 +3908,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3841,7 +3917,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3850,7 +3926,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3859,7 +3935,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3868,7 +3944,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3877,7 +3953,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3886,7 +3962,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3895,7 +3971,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3904,7 +3980,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3913,7 +3989,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3922,7 +3998,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3931,7 +4007,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3940,7 +4016,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3949,7 +4025,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3958,7 +4034,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3967,7 +4043,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3976,7 +4052,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3985,7 +4061,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3994,7 +4070,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4003,7 +4079,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4012,7 +4088,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4021,7 +4097,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4030,7 +4106,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4039,7 +4115,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4048,7 +4124,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4057,7 +4133,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4066,7 +4142,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4075,7 +4151,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4084,7 +4160,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4093,7 +4169,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4102,7 +4178,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4111,7 +4187,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4120,7 +4196,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4129,7 +4205,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4138,7 +4214,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4147,7 +4223,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4156,7 +4232,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4165,7 +4241,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4174,7 +4250,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4183,7 +4259,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4192,7 +4268,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4201,7 +4277,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4210,7 +4286,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4219,7 +4295,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4228,7 +4304,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4237,7 +4313,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4246,7 +4322,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4255,7 +4331,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4264,7 +4340,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4273,7 +4349,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4282,7 +4358,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4291,7 +4367,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4300,7 +4376,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4309,7 +4385,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4318,7 +4394,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4327,7 +4403,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4336,7 +4412,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4345,7 +4421,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4354,7 +4430,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4363,7 +4439,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4372,7 +4448,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4381,7 +4457,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4390,7 +4466,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4399,7 +4475,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4408,7 +4484,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4417,7 +4493,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4426,7 +4502,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4435,7 +4511,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4444,7 +4520,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4453,7 +4529,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4462,7 +4538,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4471,7 +4547,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4480,7 +4556,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4489,7 +4565,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4498,7 +4574,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4507,7 +4583,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4516,7 +4592,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4525,7 +4601,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4534,7 +4610,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4543,7 +4619,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4552,7 +4628,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4561,7 +4637,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4570,7 +4646,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4579,7 +4655,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4588,7 +4664,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4597,7 +4673,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4606,7 +4682,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4615,7 +4691,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4624,7 +4700,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4633,7 +4709,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4642,7 +4718,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4651,7 +4727,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4660,7 +4736,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4669,7 +4745,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4678,7 +4754,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4687,7 +4763,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4696,7 +4772,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4705,7 +4781,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4714,7 +4790,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4723,7 +4799,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4732,7 +4808,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4741,7 +4817,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4750,7 +4826,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4759,7 +4835,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4768,7 +4844,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4777,7 +4853,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4786,7 +4862,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4795,7 +4871,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4804,7 +4880,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4813,7 +4889,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4822,7 +4898,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4831,7 +4907,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4840,7 +4916,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4849,7 +4925,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4858,43 +4934,16 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D132" xr:uid="{8824DCF4-F172-4108-9CF1-2CF70907035F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D129" xr:uid="{9F8C585B-4AD9-4695-8B24-0B11CB127EB2}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A132" xr:uid="{59285024-3B08-476B-82C3-5560D5A196C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{DDA12D58-6239-4024-97D7-3EDC0FC3E551}">
       <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B132" xr:uid="{D567AAC5-E4E4-4E7A-A20B-8AFF0684168E}">
-      <formula1>"create,add_mem,delete,remove_mem,purge,full_purge,ignore"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{3A81DC73-F6A9-44DF-B8FD-59AD5B9AFDEC}">
+      <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zone_config_sample.xlsx
+++ b/zone_config_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B52EDE-C323-4282-9F93-1734D2E0D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F12FE2-EC36-4456-807A-3BDC339C9BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="20376" windowHeight="12594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="918" yWindow="2010" windowWidth="21690" windowHeight="9594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -155,12 +155,6 @@
     <t>Typical use is to copy the "zone" sheet and modify it to meet your needs. Do not modify the headers: “Type”, “Action”, “Name”, “Member”, and “Principal Member”. All other columns are ignored so that you can add columns if needed.</t>
   </si>
   <si>
-    <t>The “Principal_Member” column is relevant to peer zones and ignore actions only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If “Type”, “Action”, or “Name” is empty, the previous entry is assumed. Typically, this is how groups of actions are defined. For example, when creating a zone you would specify  "zone" in the "Zone_Object" column, "create" in the "Action" column, the zone name in the "Name" column, and the first member in the "Member" or "Principal Member" column. In subsequent rows, you would fill in only the "Member" and "Principal Member" columns. You can specify members in both the "Member" and "Principal Member" columns on the same row. </t>
-  </si>
-  <si>
     <t>The zoning database is read from the switch or input file before taking any actions. This means that members and zone objects do not have to be in this workbook as long as they are already in the zone database.</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Actions</t>
   </si>
   <si>
-    <t>All operations are performed in a buffer. The order of operations does not matter. For example, you can delete an alias that is used in a zone and then later delete the zone. Validating the zone database does not occur until a "save" or "activate" action is encountered.</t>
-  </si>
-  <si>
     <t>Rules, Tips, and Guidelines</t>
   </si>
   <si>
@@ -281,22 +272,6 @@
     <t>copy</t>
   </si>
   <si>
-    <t>Regardless of the order of zoning operation in the workbook, operations are completed in this order:
-   1. Delete zone configurations
-   2. Remove and purge zone configuration members
-   3. Delete and purge zones
-   4. Remove zone members
-   5. Delete and purge aliases
-   6. Remove alias members
-   6. Create and copy aliases
-   7. Create and copy zones
-   8. Create and copy configurations
-   9. Add alias members
-  10. Add zone members
-  11. Add zone configuration members
-  12. Save or activate zone changes</t>
-  </si>
-  <si>
     <t>Adds a member to an alias, zone, or zone configuration membership list.</t>
   </si>
   <si>
@@ -334,6 +309,19 @@
   </si>
   <si>
     <t>Typically not used. Run "zone_config.py -eh" for details</t>
+  </si>
+  <si>
+    <t>If “Type”, “Action”, or “Name” is empty, the previous entry is assumed. See "sample" sheet for an example.</t>
+  </si>
+  <si>
+    <t>Use report.py for detailed zone analysis.</t>
+  </si>
+  <si>
+    <t>The "purge" and "full_purge" actions are intended to help decommission server clusters and storage arrays, but can also be used for zone cleanup.</t>
+  </si>
+  <si>
+    <t>For detailed help:
+py zone_config.py -eh</t>
   </si>
 </sst>
 </file>
@@ -420,6 +408,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -428,9 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -725,16 +713,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
@@ -744,14 +732,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
@@ -759,28 +748,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
@@ -788,48 +776,50 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -837,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -845,71 +835,71 @@
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -917,50 +907,50 @@
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1049,11 +1039,11 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1062,11 +1052,11 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1075,11 +1065,11 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1088,11 +1078,11 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1179,11 +1169,11 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1192,11 +1182,11 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1205,11 +1195,11 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1319,11 +1309,11 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1334,7 +1324,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1345,7 +1335,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1413,11 +1403,11 @@
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -1431,7 +1421,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -1442,7 +1432,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -1489,7 +1479,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1537,7 +1527,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1548,7 +1538,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2535,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2552,13 +2542,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2569,13 +2559,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2586,18 +2576,18 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3770,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>

--- a/zone_config_sample.xlsx
+++ b/zone_config_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F12FE2-EC36-4456-807A-3BDC339C9BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA7AC36-DF73-47E3-83E1-244A1FE2D900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="918" yWindow="2010" windowWidth="21690" windowHeight="9594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,17 @@
     <sheet name="purge" sheetId="61" r:id="rId3"/>
     <sheet name="blank" sheetId="62" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>Action</t>
   </si>
@@ -149,9 +138,6 @@
     <t>Intended for use with zone_config.py</t>
   </si>
   <si>
-    <t>Hidden cells are not read. To effectively comment out a row, just hide the rows.</t>
-  </si>
-  <si>
     <t>Typical use is to copy the "zone" sheet and modify it to meet your needs. Do not modify the headers: “Type”, “Action”, “Name”, “Member”, and “Principal Member”. All other columns are ignored so that you can add columns if needed.</t>
   </si>
   <si>
@@ -309,9 +295,6 @@
   </si>
   <si>
     <t>Typically not used. Run "zone_config.py -eh" for details</t>
-  </si>
-  <si>
-    <t>If “Type”, “Action”, or “Name” is empty, the previous entry is assumed. See "sample" sheet for an example.</t>
   </si>
   <si>
     <t>Use report.py for detailed zone analysis.</t>
@@ -322,6 +305,15 @@
   <si>
     <t>For detailed help:
 py zone_config.py -eh</t>
+  </si>
+  <si>
+    <t>If “Zone_Object”, “Action”, or “Name” is empty, the previous entry is assumed. See "sample" sheet for an example.</t>
+  </si>
+  <si>
+    <t>Hidden rows are not read.</t>
+  </si>
+  <si>
+    <t>If “Zone_Object” is "comment", the row is ignored. This means you may merge the remaining cells in the row. Since comments are completely ignored, it has no effect on previous stored entries.</t>
   </si>
 </sst>
 </file>
@@ -700,264 +692,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="70.68359375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A12" si="0">A6+1</f>
+        <f t="shared" ref="A7:A8" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" ref="A9:A13" si="1">A8+1</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="6" t="s">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="3" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="3" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,19 +972,19 @@
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -993,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1005,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1024,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1035,59 +1037,59 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1100,7 +1102,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1113,7 +1115,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -1126,7 +1128,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -1139,7 +1141,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -1152,7 +1154,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1165,46 +1167,46 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1213,7 +1215,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1232,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1241,7 +1243,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1252,7 +1254,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1263,7 +1265,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1272,7 +1274,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -1285,7 +1287,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1296,7 +1298,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1305,42 +1307,42 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1349,7 +1351,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1368,7 +1370,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1379,7 +1381,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1390,7 +1392,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1399,44 +1401,44 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1445,7 +1447,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1464,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1473,18 +1475,18 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1495,7 +1497,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1504,7 +1506,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1521,29 +1523,29 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1552,7 +1554,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1561,7 +1563,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1570,7 +1572,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1579,7 +1581,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1588,7 +1590,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1597,7 +1599,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1606,7 +1608,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1615,7 +1617,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1624,7 +1626,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1633,7 +1635,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1642,7 +1644,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1651,7 +1653,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1660,7 +1662,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1669,7 +1671,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1678,7 +1680,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1687,7 +1689,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1696,7 +1698,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1705,7 +1707,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1714,7 +1716,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1723,7 +1725,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1732,7 +1734,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1741,7 +1743,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1750,7 +1752,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1759,7 +1761,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1768,7 +1770,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1777,7 +1779,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1786,7 +1788,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1795,7 +1797,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1804,7 +1806,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1813,7 +1815,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1822,7 +1824,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1831,7 +1833,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1840,7 +1842,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1849,7 +1851,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1858,7 +1860,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1867,7 +1869,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1876,7 +1878,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1885,7 +1887,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1894,7 +1896,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1903,7 +1905,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1912,7 +1914,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1921,7 +1923,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1930,7 +1932,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1939,7 +1941,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1948,7 +1950,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1957,7 +1959,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1966,7 +1968,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1975,7 +1977,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1984,7 +1986,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1993,7 +1995,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2002,7 +2004,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2011,7 +2013,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2020,7 +2022,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2029,7 +2031,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2038,7 +2040,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2047,7 +2049,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2056,7 +2058,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2065,7 +2067,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2074,7 +2076,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2083,7 +2085,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2092,7 +2094,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2101,7 +2103,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2110,7 +2112,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2119,7 +2121,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2128,7 +2130,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2137,7 +2139,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2146,7 +2148,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2155,7 +2157,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2164,7 +2166,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2173,7 +2175,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2182,7 +2184,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2191,7 +2193,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2200,7 +2202,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2209,7 +2211,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2218,7 +2220,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2227,7 +2229,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2236,7 +2238,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2245,7 +2247,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2254,7 +2256,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2263,7 +2265,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2272,7 +2274,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2281,7 +2283,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2290,7 +2292,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2299,7 +2301,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2308,7 +2310,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2317,7 +2319,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2326,7 +2328,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2335,7 +2337,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2344,7 +2346,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2353,7 +2355,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2362,7 +2364,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2371,7 +2373,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2380,7 +2382,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2389,7 +2391,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2398,7 +2400,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2407,7 +2409,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2416,7 +2418,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2425,7 +2427,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2434,7 +2436,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2443,7 +2445,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2452,7 +2454,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2461,7 +2463,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2470,7 +2472,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2482,14 +2484,14 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A149" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D149" xr:uid="{8D47A8F6-ACF7-4647-8D26-DE94B8511AFF}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B149" xr:uid="{44734BF6-806A-4CD9-82B0-9602011B605B}">
       <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A149" xr:uid="{3FC90645-1E23-4A94-8AD0-DC335632A1DC}">
+      <formula1>"comment,zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,20 +2503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6949717A-6CC8-4CCB-BA03-21FF2A7CEAF0}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2537,60 +2539,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2599,7 +2601,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2608,7 +2610,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2617,7 +2619,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2626,7 +2628,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2635,7 +2637,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2644,7 +2646,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2653,7 +2655,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2662,7 +2664,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2671,7 +2673,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2680,7 +2682,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2689,7 +2691,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2698,7 +2700,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2707,7 +2709,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2716,7 +2718,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2725,7 +2727,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2734,7 +2736,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2743,7 +2745,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2752,7 +2754,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2761,7 +2763,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2770,7 +2772,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2779,7 +2781,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2788,7 +2790,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2797,7 +2799,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2806,7 +2808,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2815,7 +2817,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2824,7 +2826,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2833,7 +2835,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2842,7 +2844,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2851,7 +2853,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2860,7 +2862,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2869,7 +2871,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2878,7 +2880,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2887,7 +2889,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2896,7 +2898,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2905,7 +2907,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2914,7 +2916,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2923,7 +2925,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2932,7 +2934,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2941,7 +2943,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2950,7 +2952,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2959,7 +2961,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2968,7 +2970,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2977,7 +2979,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2986,7 +2988,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2995,7 +2997,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3004,7 +3006,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3013,7 +3015,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3022,7 +3024,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3031,7 +3033,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3040,7 +3042,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3049,7 +3051,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3058,7 +3060,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3067,7 +3069,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3076,7 +3078,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3085,7 +3087,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3094,7 +3096,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3103,7 +3105,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3112,7 +3114,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3121,7 +3123,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3130,7 +3132,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3139,7 +3141,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3148,7 +3150,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3157,7 +3159,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3166,7 +3168,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3175,7 +3177,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3184,7 +3186,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3193,7 +3195,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3202,7 +3204,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3211,7 +3213,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3220,7 +3222,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3229,7 +3231,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3238,7 +3240,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3247,7 +3249,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3256,7 +3258,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3265,7 +3267,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3274,7 +3276,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3283,7 +3285,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3292,7 +3294,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3301,7 +3303,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3310,7 +3312,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3319,7 +3321,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3328,7 +3330,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3337,7 +3339,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3346,7 +3348,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3355,7 +3357,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3364,7 +3366,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3373,7 +3375,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3382,7 +3384,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3391,7 +3393,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3400,7 +3402,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3409,7 +3411,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3418,7 +3420,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3427,7 +3429,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3436,7 +3438,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3445,7 +3447,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3454,7 +3456,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3463,7 +3465,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3472,7 +3474,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3481,7 +3483,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3490,7 +3492,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3499,7 +3501,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3508,7 +3510,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3517,7 +3519,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3526,7 +3528,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3535,7 +3537,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3544,7 +3546,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3553,7 +3555,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3562,7 +3564,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3571,7 +3573,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3580,7 +3582,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3589,7 +3591,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3598,7 +3600,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3607,7 +3609,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3616,7 +3618,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3625,7 +3627,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3634,7 +3636,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3643,7 +3645,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3652,7 +3654,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3661,7 +3663,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3670,7 +3672,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3679,7 +3681,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3688,7 +3690,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3697,7 +3699,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3706,7 +3708,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3717,14 +3719,14 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{2681A759-FDA5-4E00-8773-15D76F7F46BE}">
-      <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D129" xr:uid="{A4EC421C-0642-4EAE-BF42-E8403666A893}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{74D7117C-DC16-40B8-9EE4-AC5D2D35F254}">
       <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{CC1A5729-0D44-4B82-8EFB-FC6E7219F633}">
+      <formula1>"comment,zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3736,20 +3738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E5668D-8749-4726-A3D9-C71F37017042}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.68359375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.68359375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="30.68359375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="110.68359375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="110.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3772,7 +3774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3781,7 +3783,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3790,7 +3792,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3799,7 +3801,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3808,7 +3810,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3817,7 +3819,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3826,7 +3828,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3835,7 +3837,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3844,7 +3846,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3853,7 +3855,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3862,7 +3864,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3871,7 +3873,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3880,7 +3882,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3889,7 +3891,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3898,7 +3900,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3907,7 +3909,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3916,7 +3918,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3925,7 +3927,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3934,7 +3936,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3943,7 +3945,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3952,7 +3954,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3961,7 +3963,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3970,7 +3972,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3979,7 +3981,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3988,7 +3990,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3997,7 +3999,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4006,7 +4008,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4015,7 +4017,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4024,7 +4026,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4033,7 +4035,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4042,7 +4044,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4051,7 +4053,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4060,7 +4062,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4069,7 +4071,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4078,7 +4080,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4087,7 +4089,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4096,7 +4098,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4105,7 +4107,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4114,7 +4116,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4123,7 +4125,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4132,7 +4134,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4141,7 +4143,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4150,7 +4152,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4159,7 +4161,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4168,7 +4170,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4177,7 +4179,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4186,7 +4188,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4195,7 +4197,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4204,7 +4206,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4213,7 +4215,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4222,7 +4224,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4231,7 +4233,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4240,7 +4242,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4249,7 +4251,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4258,7 +4260,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4267,7 +4269,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4276,7 +4278,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4285,7 +4287,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4294,7 +4296,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4303,7 +4305,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4312,7 +4314,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4321,7 +4323,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4330,7 +4332,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4339,7 +4341,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4348,7 +4350,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4357,7 +4359,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4366,7 +4368,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4375,7 +4377,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4384,7 +4386,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4393,7 +4395,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4402,7 +4404,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4411,7 +4413,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4420,7 +4422,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4429,7 +4431,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4438,7 +4440,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4447,7 +4449,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4456,7 +4458,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4465,7 +4467,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4474,7 +4476,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4483,7 +4485,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4492,7 +4494,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4501,7 +4503,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4510,7 +4512,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4519,7 +4521,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4528,7 +4530,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4537,7 +4539,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4546,7 +4548,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4555,7 +4557,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4564,7 +4566,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4573,7 +4575,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4582,7 +4584,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4591,7 +4593,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4600,7 +4602,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4609,7 +4611,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4618,7 +4620,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4627,7 +4629,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4636,7 +4638,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4645,7 +4647,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4654,7 +4656,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4663,7 +4665,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4672,7 +4674,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4681,7 +4683,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4690,7 +4692,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4699,7 +4701,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4708,7 +4710,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4717,7 +4719,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4726,7 +4728,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4735,7 +4737,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4744,7 +4746,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4753,7 +4755,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4762,7 +4764,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4771,7 +4773,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4780,7 +4782,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4789,7 +4791,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4798,7 +4800,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4807,7 +4809,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4816,7 +4818,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4825,7 +4827,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4834,7 +4836,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4843,7 +4845,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4852,7 +4854,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4861,7 +4863,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4870,7 +4872,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4879,7 +4881,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4888,7 +4890,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4897,7 +4899,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4906,7 +4908,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4915,7 +4917,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4929,11 +4931,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D129" xr:uid="{9F8C585B-4AD9-4695-8B24-0B11CB127EB2}">
       <formula1>"exact,wild,regex_m,regex_s"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{DDA12D58-6239-4024-97D7-3EDC0FC3E551}">
-      <formula1>"zone_cfg,peer_zone,zone,alias"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129" xr:uid="{3A81DC73-F6A9-44DF-B8FD-59AD5B9AFDEC}">
       <formula1>"add_mem,remove_mem,copy,create,delete,purge,full_purge,ignore,rename,replace"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A129" xr:uid="{1AA2C40A-B755-4983-93BE-4413C2AD868F}">
+      <formula1>"comment,zone_cfg,peer_zone,zone,alias"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
